--- a/Timetable.xlsx
+++ b/Timetable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mr_mi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\timetable-app-based-on-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F7ABF4-7F8F-41B6-A712-D4F58E629FD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EE0966-60C5-4BE7-A165-1C163988DBDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6135" yWindow="0" windowWidth="10320" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -226,272 +226,255 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF646464"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF646464"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF646464"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF646464"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF646464"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF646464"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF646464"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF646464"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF646464"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF646464"/>
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color rgb="FF646464"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF646464"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF646464"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF646464"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF646464"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF646464"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF646464"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF646464"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF646464"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF646464"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF646464"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF646464"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF646464"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -500,6 +483,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF646464"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -774,189 +762,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="7" width="19" customWidth="1"/>
+    <col min="1" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F1" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="B2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="C2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="D2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="E2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="F2" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="C3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="D3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="E3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="F3" s="27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="C4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="D4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="E4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="F4" s="27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
     </row>
-    <row r="7" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="B6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="C6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="D6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="E6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="F6" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="B7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="C7" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="D7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="E7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="F7" s="38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="25" t="s">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="E10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="F10" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="30" t="s">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="B11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="C11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="D11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="E11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="F11" s="13" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Timetable.xlsx
+++ b/Timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\timetable-app-based-on-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EE0966-60C5-4BE7-A165-1C163988DBDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF4A208-D568-4F94-8274-A47274358DE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="0" windowWidth="10320" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,75 +399,72 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -475,6 +472,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,19 +777,19 @@
       <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -797,19 +797,19 @@
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -817,19 +817,19 @@
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="26" t="s">
         <v>21</v>
       </c>
     </row>
@@ -837,67 +837,67 @@
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>19</v>
+      <c r="F6" s="41" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="36" t="s">
         <v>20</v>
       </c>
     </row>
@@ -947,6 +947,6 @@
     <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Timetable.xlsx
+++ b/Timetable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\timetable-app-based-on-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF4A208-D568-4F94-8274-A47274358DE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE3E325-0D4C-48C7-AC1C-3C564832BF88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>7:50 - 9:20</t>
   </si>
@@ -60,39 +60,9 @@
     <t>Friday</t>
   </si>
   <si>
-    <t>GAC 011</t>
-  </si>
-  <si>
-    <t>ACT Writing</t>
-  </si>
-  <si>
     <t>--</t>
   </si>
   <si>
-    <t>ACT Reading</t>
-  </si>
-  <si>
-    <t>GAC 010</t>
-  </si>
-  <si>
-    <t>GAC 007</t>
-  </si>
-  <si>
-    <t>GAC 008</t>
-  </si>
-  <si>
-    <t>GAC 012</t>
-  </si>
-  <si>
-    <t>ACT Science</t>
-  </si>
-  <si>
-    <t>GAC 013</t>
-  </si>
-  <si>
-    <t>ACT English</t>
-  </si>
-  <si>
     <t>Listening &amp; Speaking</t>
   </si>
   <si>
@@ -109,6 +79,27 @@
   </si>
   <si>
     <t>Science</t>
+  </si>
+  <si>
+    <t>Speaking Class</t>
+  </si>
+  <si>
+    <t>GAC 016</t>
+  </si>
+  <si>
+    <t>GAC 014</t>
+  </si>
+  <si>
+    <t>GAC 015</t>
+  </si>
+  <si>
+    <t>GAC 017</t>
+  </si>
+  <si>
+    <t>GAC 022</t>
+  </si>
+  <si>
+    <t>GAC 023</t>
   </si>
 </sst>
 </file>
@@ -131,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,25 +179,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -303,19 +276,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF646464"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF646464"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF646464"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -345,6 +305,52 @@
         <color rgb="FF646464"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF646464"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF646464"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF646464"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF646464"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF646464"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF646464"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF646464"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF646464"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF646464"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -352,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -369,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -387,94 +393,85 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -764,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,172 +771,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>16</v>
+      <c r="B2" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="25" t="s">
+      <c r="B3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>21</v>
+      <c r="C3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>21</v>
+      <c r="B4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>18</v>
+      <c r="B6" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>20</v>
+      <c r="C7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
